--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -799,13 +799,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,16 +821,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18"/>
   <tableColumns count="10">
     <tableColumn id="1" name="NO"/>
     <tableColumn id="2" name="氏名"/>
-    <tableColumn id="3" name="ふりがな" dataDxfId="0">
+    <tableColumn id="3" name="ふりがな" dataDxfId="2">
       <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="性別" dataDxfId="2"/>
-    <tableColumn id="5" name="年齢" dataDxfId="1"/>
+    <tableColumn id="4" name="性別" dataDxfId="1"/>
+    <tableColumn id="5" name="年齢" dataDxfId="0"/>
     <tableColumn id="6" name="職業"/>
     <tableColumn id="7" name="郵便番号"/>
     <tableColumn id="11" name="都道府県"/>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1313,440 +1313,411 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はぎわら　よしお</v>
+        <v>うちだ　けいこ</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>うちだ　けいこ</v>
+        <v>みかみ　しんいち</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>みかみ　しんいち</v>
+        <v>きたやま　ひろこ</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>きたやま　ひろこ</v>
+        <v>たかぎ　かずみ</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>たかぎ　かずみ</v>
+        <v>なかむら　たいすけ</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>なかむら　たいすけ</v>
+        <v>おかざき　だいご</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>おかざき　だいご</v>
+        <v>やまもと　のりお</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>やまもと　のりお</v>
+        <v>さいとう　かおる</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>さいとう　かおる</v>
+        <v>まえだ　たかし</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>まえだ　たかし</v>
+        <v>ひむら　あやこ</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>ひむら　あやこ</v>
+        <v>はっとり　けんすけ</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はっとり　けんすけ</v>
+        <v>みずしま　あゆみ</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>みずしま　あゆみ</v>
+        <v>なかやま　ひろえ</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="str">
-        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>なかやま　ひろえ</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>62</v>
-      </c>
+      <c r="D19"/>
+      <c r="E19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
